--- a/1.xlsx
+++ b/1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="1905" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="2505" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="51">
   <si>
     <t># 3 types of Reference is:</t>
   </si>
@@ -142,18 +142,12 @@
     <t>9. Publisher</t>
   </si>
   <si>
-    <t>MS Excel is used for Data Analysis</t>
-  </si>
-  <si>
     <t>MS Word is used for Word Processor</t>
   </si>
   <si>
     <t>MS PowerPoint is used for Data Presentation</t>
   </si>
   <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
     <t xml:space="preserve">  </t>
   </si>
   <si>
@@ -161,13 +155,52 @@
   </si>
   <si>
     <t>is called Ribbon(Under a Tab)</t>
+  </si>
+  <si>
+    <t>MS Excel is used for Data Entry, Analysis, management, visuals, graphs and much much more</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Why Use Excel?</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+It is the most popular spreadsheet program in the world
+Easy to learn and to get started.
+The skill ceiling is high, which means that you can do more advanced things as you become better.
+It can be used with both work and in everyday life, such as to create a family budget.
+It has a huge community support.
+It is continuously supported by Microsoft.
+Templates and frameworks can be reused by yourself and others, lowering creation costs.</t>
+    </r>
+  </si>
+  <si>
+    <t>Tip: You can use the hotkey Shift + F11 to create new sheets. Try it!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -214,6 +247,14 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="14"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -510,7 +551,7 @@
     <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
@@ -535,6 +576,46 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="15" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="18" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="3" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="14" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="16" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="17" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="18" xfId="8" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" xfId="7" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -553,19 +634,18 @@
     <xf numFmtId="0" fontId="6" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="12" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="12" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="6" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -581,45 +661,13 @@
     <xf numFmtId="0" fontId="6" fillId="10" borderId="17" xfId="9" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" xfId="7" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="15" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="18" xfId="8" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="18" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="3" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="14" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="16" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="17" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="11">
     <cellStyle name="20% - Accent6" xfId="10" builtinId="50"/>
@@ -651,16 +699,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>16</xdr:col>
+      <xdr:col>25</xdr:col>
       <xdr:colOff>11205</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>33619</xdr:rowOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>27</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>163659</xdr:rowOff>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>130040</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -677,7 +725,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9872381" y="2319619"/>
+          <a:off x="15318440" y="0"/>
           <a:ext cx="6645090" cy="2987540"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1129,10 +1177,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AF38"/>
+  <dimension ref="A1:AA54"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="S10" sqref="S10"/>
+      <selection activeCell="V34" sqref="V34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1143,23 +1191,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29"/>
-      <c r="F1" s="29"/>
-      <c r="G1" s="20"/>
-      <c r="H1" s="20"/>
-      <c r="I1" s="20"/>
-      <c r="J1" s="20"/>
-      <c r="K1" s="20"/>
-      <c r="L1" s="20"/>
-      <c r="M1" s="20"/>
-      <c r="N1" s="20"/>
-      <c r="O1" s="20"/>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="10"/>
+      <c r="J1" s="10"/>
+      <c r="K1" s="10"/>
+      <c r="L1" s="10"/>
+      <c r="M1" s="10"/>
+      <c r="N1" s="10"/>
+      <c r="O1" s="10"/>
     </row>
     <row r="2" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
@@ -1168,7 +1216,7 @@
       <c r="B2" t="s">
         <v>34</v>
       </c>
-      <c r="C2" s="28" t="s">
+      <c r="C2" s="11" t="s">
         <v>35</v>
       </c>
       <c r="D2" t="s">
@@ -1189,135 +1237,199 @@
       <c r="I2" t="s">
         <v>41</v>
       </c>
-      <c r="V2" s="27" t="s">
+      <c r="V2" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="W2" s="20"/>
+    </row>
+    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A4" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="W2" s="27"/>
-    </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A4" s="38" t="s">
+      <c r="B4" s="19"/>
+      <c r="C4" s="19"/>
+      <c r="D4" s="19"/>
+      <c r="E4" s="19"/>
+      <c r="F4" s="19"/>
+      <c r="G4" s="19"/>
+      <c r="H4" s="19"/>
+      <c r="I4" s="19"/>
+      <c r="J4" s="19"/>
+      <c r="V4" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="W4" s="19"/>
+      <c r="X4" s="19"/>
+      <c r="Y4" s="19"/>
+    </row>
+    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A5" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="B4" s="38"/>
-      <c r="C4" s="38"/>
-      <c r="D4" s="38"/>
-      <c r="V4" s="38" t="s">
+      <c r="B5" s="19"/>
+      <c r="C5" s="19"/>
+      <c r="D5" s="19"/>
+      <c r="E5" s="19"/>
+      <c r="F5" s="19"/>
+      <c r="G5" s="19"/>
+      <c r="H5" s="19"/>
+      <c r="I5" s="19"/>
+      <c r="J5" s="19"/>
+      <c r="V5" s="19"/>
+      <c r="W5" s="19"/>
+      <c r="X5" s="19"/>
+      <c r="Y5" s="19"/>
+    </row>
+    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A6" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="B6" s="19"/>
+      <c r="C6" s="19"/>
+      <c r="D6" s="19"/>
+      <c r="E6" s="19"/>
+      <c r="F6" s="19"/>
+      <c r="G6" s="19"/>
+      <c r="H6" s="19"/>
+      <c r="I6" s="19"/>
+      <c r="J6" s="19"/>
+    </row>
+    <row r="12" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R12" s="39" t="s">
         <v>48</v>
       </c>
-      <c r="W4" s="38"/>
-      <c r="X4" s="38"/>
-      <c r="Y4" s="38"/>
-    </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A5" s="27" t="s">
-        <v>43</v>
-      </c>
-      <c r="B5" s="27"/>
-      <c r="C5" s="27"/>
-      <c r="D5" s="27"/>
-      <c r="V5" s="38"/>
-      <c r="W5" s="38"/>
-      <c r="X5" s="38"/>
-      <c r="Y5" s="38"/>
-    </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A6" s="38" t="s">
-        <v>44</v>
-      </c>
-      <c r="B6" s="38"/>
-      <c r="C6" s="38"/>
-      <c r="D6" s="38"/>
+      <c r="S12" s="39"/>
+      <c r="T12" s="39"/>
+      <c r="U12" s="39"/>
+      <c r="V12" s="39"/>
+      <c r="W12" s="39"/>
+      <c r="X12" s="39"/>
     </row>
     <row r="13" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A13" s="21" t="s">
+      <c r="A13" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="B13" s="21"/>
-      <c r="C13" s="21"/>
-      <c r="E13" s="33" t="s">
+      <c r="B13" s="34"/>
+      <c r="C13" s="34"/>
+      <c r="E13" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="F13" s="33"/>
-      <c r="G13" s="33"/>
-      <c r="H13" s="33"/>
-      <c r="I13" s="33"/>
-      <c r="K13" s="26" t="s">
+      <c r="F13" s="14"/>
+      <c r="G13" s="14"/>
+      <c r="H13" s="14"/>
+      <c r="I13" s="14"/>
+      <c r="K13" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="L13" s="26"/>
-      <c r="M13" s="26"/>
-      <c r="N13" s="26"/>
-      <c r="O13" s="26"/>
+      <c r="L13" s="23"/>
+      <c r="M13" s="23"/>
+      <c r="N13" s="23"/>
+      <c r="O13" s="23"/>
+      <c r="R13" s="39"/>
+      <c r="S13" s="39"/>
+      <c r="T13" s="39"/>
+      <c r="U13" s="39"/>
+      <c r="V13" s="39"/>
+      <c r="W13" s="39"/>
+      <c r="X13" s="39"/>
     </row>
     <row r="14" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A14" s="22" t="s">
+      <c r="A14" s="35" t="s">
         <v>31</v>
       </c>
-      <c r="B14" s="22"/>
-      <c r="C14" s="22"/>
+      <c r="B14" s="35"/>
+      <c r="C14" s="35"/>
       <c r="D14" s="1"/>
-      <c r="E14" s="34" t="s">
+      <c r="E14" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="F14" s="34"/>
-      <c r="G14" s="34"/>
-      <c r="H14" s="34"/>
-      <c r="I14" s="34"/>
+      <c r="F14" s="15"/>
+      <c r="G14" s="15"/>
+      <c r="H14" s="15"/>
+      <c r="I14" s="15"/>
       <c r="K14" t="s">
         <v>6</v>
       </c>
+      <c r="R14" s="39"/>
+      <c r="S14" s="39"/>
+      <c r="T14" s="39"/>
+      <c r="U14" s="39"/>
+      <c r="V14" s="39"/>
+      <c r="W14" s="39"/>
+      <c r="X14" s="39"/>
     </row>
     <row r="15" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A15" s="23" t="s">
+      <c r="A15" s="36" t="s">
         <v>30</v>
       </c>
-      <c r="B15" s="24"/>
-      <c r="C15" s="25"/>
+      <c r="B15" s="37"/>
+      <c r="C15" s="38"/>
       <c r="D15" s="1"/>
-      <c r="E15" s="35" t="s">
+      <c r="E15" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="F15" s="35"/>
-      <c r="G15" s="35"/>
-      <c r="H15" s="35"/>
-      <c r="I15" s="35"/>
+      <c r="F15" s="16"/>
+      <c r="G15" s="16"/>
+      <c r="H15" s="16"/>
+      <c r="I15" s="16"/>
       <c r="K15" t="s">
         <v>7</v>
       </c>
+      <c r="R15" s="39"/>
+      <c r="S15" s="39"/>
+      <c r="T15" s="39"/>
+      <c r="U15" s="39"/>
+      <c r="V15" s="39"/>
+      <c r="W15" s="39"/>
+      <c r="X15" s="39"/>
     </row>
     <row r="16" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A16" s="31" t="s">
+      <c r="A16" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="B16" s="31"/>
-      <c r="C16" s="31"/>
+      <c r="B16" s="22"/>
+      <c r="C16" s="22"/>
       <c r="D16" s="1"/>
-      <c r="E16" s="30" t="s">
+      <c r="E16" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="F16" s="36"/>
-      <c r="G16" s="36"/>
-      <c r="H16" s="36"/>
-      <c r="I16" s="37"/>
+      <c r="F16" s="17"/>
+      <c r="G16" s="17"/>
+      <c r="H16" s="17"/>
+      <c r="I16" s="18"/>
       <c r="K16" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="R16" s="39"/>
+      <c r="S16" s="39"/>
+      <c r="T16" s="39"/>
+      <c r="U16" s="39"/>
+      <c r="V16" s="39"/>
+      <c r="W16" s="39"/>
+      <c r="X16" s="39"/>
+    </row>
+    <row r="17" spans="1:24" x14ac:dyDescent="0.25">
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
-      <c r="E17" s="32" t="s">
+      <c r="E17" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="F17" s="32"/>
-      <c r="G17" s="32"/>
-      <c r="H17" s="32"/>
-      <c r="I17" s="32"/>
+      <c r="F17" s="13"/>
+      <c r="G17" s="13"/>
+      <c r="H17" s="13"/>
+      <c r="I17" s="13"/>
       <c r="K17" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="R17" s="39"/>
+      <c r="S17" s="39"/>
+      <c r="T17" s="39"/>
+      <c r="U17" s="39"/>
+      <c r="V17" s="39"/>
+      <c r="W17" s="39"/>
+      <c r="X17" s="39"/>
+    </row>
+    <row r="18" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
@@ -1328,8 +1440,33 @@
       <c r="K18" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="R18" s="39"/>
+      <c r="S18" s="39"/>
+      <c r="T18" s="39"/>
+      <c r="U18" s="39"/>
+      <c r="V18" s="39"/>
+      <c r="W18" s="39"/>
+      <c r="X18" s="39"/>
+    </row>
+    <row r="19" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="R19" s="39"/>
+      <c r="S19" s="39"/>
+      <c r="T19" s="39"/>
+      <c r="U19" s="39"/>
+      <c r="V19" s="39"/>
+      <c r="W19" s="39"/>
+      <c r="X19" s="39"/>
+    </row>
+    <row r="20" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="R20" s="39"/>
+      <c r="S20" s="39"/>
+      <c r="T20" s="39"/>
+      <c r="U20" s="39"/>
+      <c r="V20" s="39"/>
+      <c r="W20" s="39"/>
+      <c r="X20" s="39"/>
+    </row>
+    <row r="21" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>11</v>
       </c>
@@ -1345,8 +1482,15 @@
       <c r="E21" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="R21" s="39"/>
+      <c r="S21" s="39"/>
+      <c r="T21" s="39"/>
+      <c r="U21" s="39"/>
+      <c r="V21" s="39"/>
+      <c r="W21" s="39"/>
+      <c r="X21" s="39"/>
+    </row>
+    <row r="22" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
         <v>13</v>
       </c>
@@ -1362,8 +1506,15 @@
       <c r="E22" s="4">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="R22" s="39"/>
+      <c r="S22" s="39"/>
+      <c r="T22" s="39"/>
+      <c r="U22" s="39"/>
+      <c r="V22" s="39"/>
+      <c r="W22" s="39"/>
+      <c r="X22" s="39"/>
+    </row>
+    <row r="23" spans="1:24" x14ac:dyDescent="0.25">
       <c r="I23" s="3" t="s">
         <v>11</v>
       </c>
@@ -1379,8 +1530,15 @@
       <c r="M23" s="3" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="R23" s="39"/>
+      <c r="S23" s="39"/>
+      <c r="T23" s="39"/>
+      <c r="U23" s="39"/>
+      <c r="V23" s="39"/>
+      <c r="W23" s="39"/>
+      <c r="X23" s="39"/>
+    </row>
+    <row r="24" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B24" s="3" t="s">
         <v>11</v>
       </c>
@@ -1411,8 +1569,15 @@
       <c r="M24" s="4">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="R24" s="39"/>
+      <c r="S24" s="39"/>
+      <c r="T24" s="39"/>
+      <c r="U24" s="39"/>
+      <c r="V24" s="39"/>
+      <c r="W24" s="39"/>
+      <c r="X24" s="39"/>
+    </row>
+    <row r="25" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B25" s="6" t="s">
         <v>26</v>
       </c>
@@ -1443,8 +1608,15 @@
       <c r="M25" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="R25" s="39"/>
+      <c r="S25" s="39"/>
+      <c r="T25" s="39"/>
+      <c r="U25" s="39"/>
+      <c r="V25" s="39"/>
+      <c r="W25" s="39"/>
+      <c r="X25" s="39"/>
+    </row>
+    <row r="26" spans="1:24" x14ac:dyDescent="0.25">
       <c r="I26" s="4" t="s">
         <v>24</v>
       </c>
@@ -1460,8 +1632,15 @@
       <c r="M26" s="4">
         <v>7</v>
       </c>
-    </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="R26" s="39"/>
+      <c r="S26" s="39"/>
+      <c r="T26" s="39"/>
+      <c r="U26" s="39"/>
+      <c r="V26" s="39"/>
+      <c r="W26" s="39"/>
+      <c r="X26" s="39"/>
+    </row>
+    <row r="27" spans="1:24" x14ac:dyDescent="0.25">
       <c r="C27" s="3" t="s">
         <v>11</v>
       </c>
@@ -1477,8 +1656,15 @@
       <c r="G27" s="3" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="R27" s="39"/>
+      <c r="S27" s="39"/>
+      <c r="T27" s="39"/>
+      <c r="U27" s="39"/>
+      <c r="V27" s="39"/>
+      <c r="W27" s="39"/>
+      <c r="X27" s="39"/>
+    </row>
+    <row r="28" spans="1:24" x14ac:dyDescent="0.25">
       <c r="C28" s="6" t="s">
         <v>26</v>
       </c>
@@ -1494,13 +1680,37 @@
       <c r="G28" s="4">
         <v>3</v>
       </c>
-    </row>
-    <row r="30" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A31" s="10" t="s">
+      <c r="R28" s="39"/>
+      <c r="S28" s="39"/>
+      <c r="T28" s="39"/>
+      <c r="U28" s="39"/>
+      <c r="V28" s="39"/>
+      <c r="W28" s="39"/>
+      <c r="X28" s="39"/>
+    </row>
+    <row r="29" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="R29" s="39"/>
+      <c r="S29" s="39"/>
+      <c r="T29" s="39"/>
+      <c r="U29" s="39"/>
+      <c r="V29" s="39"/>
+      <c r="W29" s="39"/>
+      <c r="X29" s="39"/>
+    </row>
+    <row r="30" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="R30" s="39"/>
+      <c r="S30" s="39"/>
+      <c r="T30" s="39"/>
+      <c r="U30" s="39"/>
+      <c r="V30" s="39"/>
+      <c r="W30" s="39"/>
+      <c r="X30" s="39"/>
+    </row>
+    <row r="31" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A31" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="B31" s="11"/>
+      <c r="B31" s="25"/>
       <c r="C31" s="8" t="s">
         <v>12</v>
       </c>
@@ -1513,10 +1723,10 @@
       <c r="F31" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="I31" s="17" t="s">
+      <c r="I31" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="J31" s="18"/>
+      <c r="J31" s="31"/>
       <c r="K31" s="3" t="s">
         <v>27</v>
       </c>
@@ -1530,79 +1740,74 @@
         <v>27</v>
       </c>
     </row>
-    <row r="32" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="12"/>
-      <c r="B32" s="13"/>
+    <row r="32" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="26"/>
+      <c r="B32" s="27"/>
       <c r="C32" s="9">
-        <f>B22</f>
+        <f t="shared" ref="C32:F33" si="0">B22</f>
         <v>100</v>
       </c>
       <c r="D32" s="9">
-        <f>C22</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="E32" s="9">
-        <f>D22</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="F32" s="9">
-        <f>E22</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="I32" s="16"/>
-      <c r="J32" s="19"/>
+      <c r="I32" s="32"/>
+      <c r="J32" s="33"/>
       <c r="K32" s="5">
         <f>D$28</f>
         <v>100</v>
       </c>
       <c r="L32" s="5">
-        <f t="shared" ref="L32:N32" si="0">E$28</f>
+        <f>E$28</f>
         <v>1</v>
       </c>
       <c r="M32" s="5">
+        <f>F$28</f>
+        <v>2</v>
+      </c>
+      <c r="N32" s="5">
+        <f>G$28</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A33" s="28"/>
+      <c r="B33" s="29"/>
+      <c r="C33" s="9">
         <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="N32" s="5">
+        <v>0</v>
+      </c>
+      <c r="D33" s="9">
         <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="33" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A33" s="14"/>
-      <c r="B33" s="15"/>
-      <c r="C33" s="9">
-        <f>B23</f>
         <v>0</v>
       </c>
-      <c r="D33" s="9">
-        <f>C23</f>
+      <c r="E33" s="9">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E33" s="9">
-        <f>D23</f>
+      <c r="F33" s="9">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F33" s="9">
-        <f>E23</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="S34" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="35" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="AF35" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="36" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A36" s="10" t="s">
+    </row>
+    <row r="35" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AA35" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="36" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A36" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="B36" s="11"/>
+      <c r="B36" s="25"/>
       <c r="C36" s="7" t="s">
         <v>25</v>
       </c>
@@ -1615,10 +1820,10 @@
       <c r="F36" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="I36" s="17" t="s">
+      <c r="I36" s="30" t="s">
         <v>17</v>
       </c>
-      <c r="J36" s="18"/>
+      <c r="J36" s="31"/>
       <c r="K36" s="3" t="s">
         <v>27</v>
       </c>
@@ -1632,9 +1837,9 @@
         <v>27</v>
       </c>
     </row>
-    <row r="37" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="12"/>
-      <c r="B37" s="13"/>
+    <row r="37" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="26"/>
+      <c r="B37" s="27"/>
       <c r="C37" s="5">
         <f>$C$25</f>
         <v>20</v>
@@ -1651,28 +1856,28 @@
         <f>$C$25</f>
         <v>20</v>
       </c>
-      <c r="I37" s="16"/>
-      <c r="J37" s="19"/>
+      <c r="I37" s="32"/>
+      <c r="J37" s="33"/>
       <c r="K37" s="5">
         <f>$D28</f>
         <v>100</v>
       </c>
       <c r="L37" s="5">
-        <f t="shared" ref="L37:N37" si="1">$D28</f>
+        <f>$D28</f>
         <v>100</v>
       </c>
       <c r="M37" s="5">
-        <f t="shared" si="1"/>
+        <f>$D28</f>
         <v>100</v>
       </c>
       <c r="N37" s="5">
-        <f t="shared" si="1"/>
+        <f>$D28</f>
         <v>100</v>
       </c>
     </row>
-    <row r="38" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A38" s="14"/>
-      <c r="B38" s="15"/>
+    <row r="38" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A38" s="28"/>
+      <c r="B38" s="29"/>
       <c r="C38" s="4">
         <f>$E$25</f>
         <v>2</v>
@@ -1690,16 +1895,47 @@
         <v>2</v>
       </c>
     </row>
+    <row r="43" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A43" s="40" t="s">
+        <v>49</v>
+      </c>
+      <c r="B43" s="19"/>
+      <c r="C43" s="19"/>
+      <c r="D43" s="19"/>
+      <c r="E43" s="19"/>
+      <c r="F43" s="19"/>
+      <c r="G43" s="19"/>
+      <c r="H43" s="19"/>
+      <c r="I43" s="19"/>
+    </row>
+    <row r="44" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A44" s="19"/>
+      <c r="B44" s="19"/>
+      <c r="C44" s="19"/>
+      <c r="D44" s="19"/>
+      <c r="E44" s="19"/>
+      <c r="F44" s="19"/>
+      <c r="G44" s="19"/>
+      <c r="H44" s="19"/>
+      <c r="I44" s="19"/>
+    </row>
+    <row r="45" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A45" s="41"/>
+    </row>
+    <row r="46" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A46" s="41"/>
+    </row>
+    <row r="47" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A47" s="41"/>
+    </row>
+    <row r="54" spans="18:18" x14ac:dyDescent="0.25">
+      <c r="R54" t="s">
+        <v>50</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="15">
-    <mergeCell ref="V4:Y5"/>
-    <mergeCell ref="V2:W2"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A16:C16"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="A5:D5"/>
-    <mergeCell ref="A6:D6"/>
-    <mergeCell ref="K13:O13"/>
+  <mergeCells count="17">
+    <mergeCell ref="A43:I44"/>
     <mergeCell ref="A31:B33"/>
     <mergeCell ref="A36:B38"/>
     <mergeCell ref="I36:J37"/>
@@ -1707,6 +1943,15 @@
     <mergeCell ref="A13:C13"/>
     <mergeCell ref="A14:C14"/>
     <mergeCell ref="A15:C15"/>
+    <mergeCell ref="V4:Y5"/>
+    <mergeCell ref="V2:W2"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A16:C16"/>
+    <mergeCell ref="K13:O13"/>
+    <mergeCell ref="A4:J4"/>
+    <mergeCell ref="A5:J5"/>
+    <mergeCell ref="A6:J6"/>
+    <mergeCell ref="R12:X30"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
